--- a/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13065"/>
+    <workbookView windowWidth="23910" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>序号</t>
   </si>
@@ -139,7 +139,7 @@
     <t>上报数据统计时间,认定时间</t>
   </si>
   <si>
-    <t>奖励经费（万元）</t>
+    <t>奖励经费(万元)</t>
   </si>
   <si>
     <t>历年昆山市与高校院所签约情况</t>
@@ -148,13 +148,13 @@
     <t>协议名称</t>
   </si>
   <si>
-    <t>签约院校</t>
+    <t>签约高校</t>
   </si>
   <si>
     <t>签约时间</t>
   </si>
   <si>
-    <t>所属区镇</t>
+    <t>所在区镇</t>
   </si>
   <si>
     <t>教授博士柔性进企业</t>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>认定时间</t>
-  </si>
-  <si>
-    <t>所在区镇</t>
   </si>
   <si>
     <t>2014协同创新项目</t>
@@ -207,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -221,23 +218,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +341,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,99 +357,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,181 +377,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +562,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,26 +632,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,39 +662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1518,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1526,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1" spans="3:8">
@@ -1537,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>21</v>
@@ -1551,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="3:8">
@@ -1565,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="8:8">

--- a/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\Technology_Bureau\dataDisplay\dataDisplay\flaskapp\sums_models\analysis\extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23910" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23910" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -197,19 +202,17 @@
   </si>
   <si>
     <t>奖励经费</t>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,345 +221,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -564,255 +252,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,62 +268,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1164,19 +569,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
@@ -1191,7 +596,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1231,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1254,12 +659,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1267,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1284,12 +689,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1297,7 +702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,12 +725,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1333,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,12 +761,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1369,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1392,12 +797,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1405,7 +810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +823,11 @@
       <c r="G24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1427,7 +835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1452,7 +860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1466,12 +874,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1479,7 +887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1496,7 +904,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1504,7 +917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1518,7 +931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -1526,7 +939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="3:8">
+    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -1551,7 +964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="3:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
@@ -1565,12 +978,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H71" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +592,7 @@
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -663,6 +663,9 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -693,6 +696,9 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -729,6 +735,9 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -761,12 +770,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -774,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -797,12 +809,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -810,7 +825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
@@ -827,7 +842,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -835,7 +855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -852,7 +872,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -860,7 +885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
@@ -874,12 +899,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -887,7 +915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
@@ -904,12 +932,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H37" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -917,7 +948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -931,7 +962,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -939,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,7 +992,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>12</v>
       </c>
@@ -964,7 +1005,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,6 +1017,11 @@
       </c>
       <c r="H48" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.15">

--- a/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
+++ b/dataDisplay/flaskapp/sums_models/analysis/extract/合作交流科抽取.xlsx
@@ -90,9 +90,6 @@
     <t>省拨,地方匹配</t>
   </si>
   <si>
-    <t>省</t>
-  </si>
-  <si>
     <t>省级国际科技合作项目</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   <si>
     <t>元</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省级</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -586,7 +586,7 @@
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>8</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -764,18 +764,18 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -800,21 +800,21 @@
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -830,21 +830,21 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -852,29 +852,29 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -882,29 +882,29 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -912,32 +912,32 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -945,26 +945,26 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>21</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -1013,15 +1013,15 @@
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.15">
